--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>43684</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44712</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44818</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43689</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44168</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44928</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44929</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43474</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43584</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>43870</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43888</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44214</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44269</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44489</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44841</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45095</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43346</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43648</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43648</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>43852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43906</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44070</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44081</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44146</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44168</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>44252</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44293</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44362</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44603</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44691</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>44698</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44939</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43461</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43486</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43502</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43648</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43727</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43826</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43899</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43913</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43957</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44088</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44238</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>44277</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44362</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44733</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44743</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44839</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44862</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44929</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44929</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45072</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45078</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45097</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45103</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45147</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45159</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43314</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43314</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43318</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43327</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43328</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43335</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43346</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43354</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43354</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43356</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43369</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43382</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43388</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43388</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43390</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43396</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43396</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43402</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43405</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43406</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>43410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43410</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43412</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43418</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43423</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43425</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43427</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>43432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>43440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>43441</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>43442</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>43447</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>43447</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>43451</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>43451</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>43461</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43475</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43486</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43486</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43489</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43493</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43493</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43501</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43503</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43503</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43517</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43522</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43524</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43532</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>43536</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>43537</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43538</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43538</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>43544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>43546</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>43549</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43564</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43579</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43584</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>43587</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>43591</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>43612</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>43628</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>43629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>43629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>43636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>43643</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43647</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43648</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43648</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>43651</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>43651</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>43656</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>43658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>43661</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>43668</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>43675</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>43693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>43721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>43727</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>43733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>43735</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>43737</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>43750</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>43762</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>43765</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43781</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43788</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>43788</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>43794</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43795</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43795</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43811</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>43815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>43819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>43833</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>43838</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>43843</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>43843</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>43847</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>43849</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>43850</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>43862</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43865</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>43867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>43874</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>43878</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>43880</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>43889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>43889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>43895</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>43903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>43906</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>43906</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>43909</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>43910</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>43913</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>43915</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>43916</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>43917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>43924</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>43956</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>43959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>43962</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>43962</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>43969</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>43977</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>43992</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>43992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>43994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44011</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44018</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44020</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44039</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44048</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44048</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44049</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44054</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44069</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44091</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44096</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44150</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44168</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44173</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44195</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44197</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44208</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44212</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44214</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44217</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44217</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44244</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44246</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44263</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44263</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44266</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44272</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44280</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44283</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44299</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44301</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44302</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44312</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44312</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44321</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44335</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44335</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44349</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44363</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44368</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44375</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44376</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44390</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44396</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44428</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44434</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44434</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44437</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44442</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44447</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44459</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44468</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44483</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44487</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44488</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44489</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44504</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44510</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44515</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44516</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44517</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44530</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44565</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44609</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44609</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44628</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44649</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44652</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44663</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44663</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44678</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44699</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44712</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44733</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>44741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44760</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44818</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44821</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44833</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44839</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44839</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44840</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44841</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44847</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44862</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>44867</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>44871</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44875</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44876</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44881</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44881</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44882</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44894</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44894</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44896</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44909</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44909</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44915</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44916</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44916</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44917</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44922</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44922</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44928</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44929</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44930</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44931</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44936</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44936</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44944</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44944</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44955</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44955</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44959</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44959</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44966</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44968</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44968</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44974</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44979</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44987</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44992</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>45005</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45006</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45014</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45016</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45020</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45029</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45033</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45036</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45039</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>45070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45071</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45071</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34397,7 +34397,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45072</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45072</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>45079</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45084</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45085</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45096</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45097</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45102</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45103</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45103</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45106</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45112</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45124</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45125</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45132</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45145</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45147</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45159</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45166</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45169</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45195</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44712</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44818</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44881</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44168</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44211</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44361</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44841</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44853</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44928</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45195</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43388</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43806</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43851</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43870</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>43888</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44130</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44160</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44214</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44269</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44489</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>44833</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44833</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44841</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44939</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45040</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45095</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43346</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43531</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43648</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43906</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44070</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44081</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44146</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44168</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44362</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44496</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44550</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44603</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>44841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45145</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43546</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43558</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43826</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43899</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43913</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43957</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44067</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44088</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44165</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44197</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44238</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44277</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44300</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44362</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44434</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44447</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44743</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44839</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44839</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44862</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44929</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44934</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45019</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45072</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45078</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45097</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45103</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45147</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45159</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>43314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43318</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43341</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43354</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43356</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43369</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43382</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43388</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>43388</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>43390</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43396</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>43396</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>43399</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43402</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>43405</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>43406</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43410</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43410</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43418</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43423</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43425</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43426</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43427</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>43432</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>43438</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>43440</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>43442</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>43447</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>43451</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>43451</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>43461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43475</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43475</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>43483</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>43486</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>43486</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43489</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>43493</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43493</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>43501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>43501</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>43502</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>43502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>43516</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>43524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>43532</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>43535</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>43536</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>43536</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43537</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43538</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43538</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>43546</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>43549</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>43552</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>43564</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43584</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43584</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>43587</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>43591</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>43612</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>43612</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>43629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>43629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>43643</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>43647</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43648</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>43648</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43651</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>43651</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>43656</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>43658</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>43661</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>43668</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43675</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43693</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43719</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>43727</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>43733</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>43735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>43737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>43750</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>43762</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>43765</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>43788</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>43788</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>43794</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>43795</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>43795</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>43810</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>43811</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>43815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>43815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>43819</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>43833</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>43838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>43843</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>43843</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>43849</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>43862</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>43862</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>43867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>43874</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>43878</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>43880</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>43889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>43889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>43895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>43903</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>43906</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>43906</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>43907</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43909</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43910</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43913</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>43915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>43916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>43917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>43924</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>43956</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>43959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>43962</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>43962</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>43969</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43977</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43979</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>43992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>43994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>43994</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44006</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44011</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44018</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44020</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44039</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44048</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44048</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44054</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44069</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>44091</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>44124</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>44147</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44150</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44158</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>44168</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44173</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44195</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44197</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44208</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44212</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44214</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44216</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44217</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44217</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44244</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>44246</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44263</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44272</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>44280</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44283</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44298</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44299</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44301</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44302</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44312</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44312</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44313</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44321</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44335</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44335</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>44354</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>44363</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44368</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44370</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44396</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44428</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44434</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44437</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44442</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44443</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>44447</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44483</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44487</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44489</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44504</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44510</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>44515</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>44516</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>44517</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>44530</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44538</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44565</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44609</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44609</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44628</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44649</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44652</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44663</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44663</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44678</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44699</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44712</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44725</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44733</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44760</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44818</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44818</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44821</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44833</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44839</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44839</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44840</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44855</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44862</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44871</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44876</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44881</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44881</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44896</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44902</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44902</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44909</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44909</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44915</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44916</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44916</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44917</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44922</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44922</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44928</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44929</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44930</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>44931</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>44936</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44936</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44938</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44944</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44944</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44955</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44955</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44959</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44959</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44966</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44966</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44974</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44979</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44987</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44992</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45005</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45006</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45014</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45016</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45020</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45029</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>45033</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45036</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45039</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45044</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45056</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45070</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45072</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45072</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45078</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45078</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45079</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45084</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45085</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45096</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45097</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45097</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45102</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45103</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45103</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45106</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45112</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45132</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45145</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45147</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45166</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45169</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45195</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44712</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44818</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44881</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44168</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44211</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44361</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44841</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44853</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44928</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45195</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43388</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43806</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43851</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43870</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>43888</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44130</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44160</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44214</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44269</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44489</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>44833</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44833</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44841</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44939</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45040</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45095</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43346</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43531</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43648</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43906</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44070</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44081</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44146</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44168</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44362</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44496</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44550</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44603</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>44841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45145</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43546</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43558</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43826</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43899</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43913</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43957</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44067</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44088</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44165</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44197</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44238</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44277</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44300</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44362</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44434</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44447</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44743</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44839</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44839</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44862</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44929</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44934</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45019</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45072</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45078</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45097</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45103</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45147</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45159</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>43314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43318</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43341</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43354</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43356</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43369</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43382</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43388</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>43388</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>43390</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43396</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>43396</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>43399</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43402</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>43405</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>43406</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43410</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43410</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43418</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43423</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43425</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43426</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43427</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>43432</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>43438</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>43440</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>43442</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>43447</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>43451</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>43451</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>43461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43475</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43475</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>43483</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>43486</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>43486</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43489</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>43493</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43493</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>43501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>43501</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>43502</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>43502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>43516</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>43524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>43532</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>43535</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>43536</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>43536</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43537</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43538</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43538</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>43546</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>43549</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>43552</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>43564</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43584</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43584</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>43587</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>43591</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>43612</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>43612</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>43629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>43629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>43643</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>43647</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43648</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>43648</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43651</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>43651</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>43656</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>43658</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>43661</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>43668</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43675</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43693</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43719</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>43727</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>43733</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>43735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>43737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>43750</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>43762</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>43765</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>43788</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>43788</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>43794</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>43795</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>43795</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>43810</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>43811</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>43815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>43815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>43819</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>43833</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>43838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>43843</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>43843</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>43849</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>43862</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>43862</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>43867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>43874</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>43878</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>43880</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>43889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>43889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>43895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>43903</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>43906</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>43906</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>43907</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43909</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43910</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43913</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>43915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>43916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>43917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>43924</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>43956</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>43959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>43962</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>43962</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>43969</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43977</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43979</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>43992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>43994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>43994</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44006</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44011</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44018</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44020</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44039</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44048</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44048</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44054</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44069</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>44091</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>44124</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>44147</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44150</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44158</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>44168</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44173</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44195</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44197</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44208</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44212</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44214</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44216</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44217</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44217</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44244</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>44246</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44263</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44272</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>44280</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44283</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44298</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44299</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44301</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44302</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44312</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44312</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44313</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44321</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44335</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44335</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>44354</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>44363</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44368</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44370</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44396</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44428</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44434</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44437</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44442</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44443</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>44447</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44483</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44487</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44489</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44504</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44510</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>44515</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>44516</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>44517</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>44530</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44538</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44565</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44609</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44609</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44628</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44649</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44652</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44663</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44663</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44678</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44699</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44712</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44725</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44733</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44760</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44818</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44818</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44821</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44833</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44839</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44839</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44840</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44855</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44862</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44871</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44876</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44881</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44881</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44896</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44902</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44902</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44909</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44909</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44915</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44916</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44916</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44917</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44922</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44922</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44928</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44929</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44930</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>44931</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>44936</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44936</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44938</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44944</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44944</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44955</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44955</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44959</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44959</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44966</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44966</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44974</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44979</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44987</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44992</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45005</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45006</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45014</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45016</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45020</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45029</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>45033</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45036</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45039</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45044</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45056</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45070</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45072</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45072</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45078</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45078</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45079</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45084</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45085</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45096</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45097</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45097</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45102</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45103</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45103</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45106</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45112</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45132</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45145</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45147</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45166</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45169</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45195</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44712</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44818</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44881</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44168</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44211</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44361</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44841</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44853</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44928</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45195</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43388</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43806</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43851</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43870</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>43888</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44130</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44160</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44214</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44269</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44489</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>44833</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44833</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44841</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44939</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45040</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45095</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43346</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43531</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43648</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43906</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44070</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44081</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44146</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44168</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44362</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44496</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44550</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44603</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>44841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45145</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43546</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43558</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43826</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43899</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43913</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43957</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44067</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44088</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44165</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44197</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44238</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44277</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44300</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44362</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44434</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44447</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44743</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44839</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44839</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44862</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44929</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44934</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45019</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45072</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45078</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45097</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45103</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45147</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45159</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>43314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43318</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43341</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43354</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43356</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43369</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43382</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43388</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>43388</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>43390</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43396</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>43396</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>43399</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43402</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>43405</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>43406</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43410</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43410</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43418</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43423</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43425</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43426</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43427</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>43432</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>43438</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>43440</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>43442</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>43447</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>43451</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>43451</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>43461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43475</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43475</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>43483</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>43486</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>43486</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43489</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>43493</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43493</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>43501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>43501</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>43502</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>43502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>43516</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>43524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>43532</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>43535</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>43536</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>43536</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43537</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43538</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43538</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>43546</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>43549</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>43552</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>43564</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43584</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43584</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>43587</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>43591</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>43612</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>43612</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>43629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>43629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>43643</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>43647</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43648</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>43648</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43651</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>43651</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>43656</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>43658</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>43661</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>43668</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43675</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43693</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43719</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>43727</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>43733</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>43735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>43737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>43750</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>43762</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>43765</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>43788</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>43788</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>43794</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>43795</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>43795</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>43810</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>43811</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>43815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>43815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>43819</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>43833</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>43838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>43843</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>43843</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>43849</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>43862</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>43862</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>43867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>43874</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>43878</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>43880</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>43889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>43889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>43895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>43903</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>43906</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>43906</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>43907</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43909</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43910</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43913</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>43915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>43916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>43917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>43924</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>43956</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>43959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>43962</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>43962</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>43969</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43977</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43979</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>43992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>43994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>43994</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44006</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44011</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44018</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44020</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44039</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44048</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44048</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44054</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44069</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>44091</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>44124</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>44147</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44150</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44158</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>44168</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44173</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44195</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44197</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44208</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44212</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44214</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44216</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44217</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44217</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44244</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>44246</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44263</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44272</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>44280</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44283</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44298</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44299</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44301</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44302</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44312</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44312</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44313</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44321</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44335</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44335</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>44354</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>44363</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44368</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44370</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44396</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44428</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44434</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44437</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44442</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44443</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>44447</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44483</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44487</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44489</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44504</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44510</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>44515</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>44516</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>44517</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>44530</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44538</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44565</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44609</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44609</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44628</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44649</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44652</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44663</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44663</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44678</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44699</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44712</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44725</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44733</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44760</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44818</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44818</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44821</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44833</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44839</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44839</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44840</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44855</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44862</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44871</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44876</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44881</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44881</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44896</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44902</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44902</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44909</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44909</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44915</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44916</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44916</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44917</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44922</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44922</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44928</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44929</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44930</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>44931</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>44936</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44936</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44938</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44944</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44944</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44955</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44955</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44959</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44959</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44966</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44966</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44974</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44979</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44987</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44992</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45005</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45006</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45014</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45016</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45020</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45029</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>45033</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45036</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45039</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45044</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45056</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45070</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45072</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45072</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45078</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45078</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45079</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45084</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45085</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45096</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45097</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45097</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45102</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45103</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45103</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45106</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45112</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45132</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45145</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45147</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45166</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45169</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44938</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45079</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44733</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44841</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44944</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>44949</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44924</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44938</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43553</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43984</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43493</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44342</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>44509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44908</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44943</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44968</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45012</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45195</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44712</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44818</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44881</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44168</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44211</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44361</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44841</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44853</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44928</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45195</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43388</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43806</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43851</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43870</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>43888</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44130</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44160</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44214</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44269</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44489</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>44833</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44833</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44841</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44939</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45040</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45095</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43346</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43531</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43648</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43906</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44070</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44081</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44146</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44168</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>44293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44362</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44496</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44550</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44603</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>44841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45145</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43546</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43558</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43826</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43899</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43913</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43957</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44067</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44088</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44165</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44197</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44238</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44277</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44300</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44362</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44434</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44447</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44743</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44839</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44839</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44862</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44929</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44934</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45019</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45072</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45078</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45097</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45103</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45147</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45159</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>43314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43318</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43341</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43354</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43356</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43369</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43382</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43388</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>43388</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>43390</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43396</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>43396</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>43399</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43402</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>43405</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>43406</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43410</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43410</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43418</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43423</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43425</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43426</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43427</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>43432</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>43438</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>43440</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>43442</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>43447</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>43451</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>43451</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>43461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43475</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43475</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>43483</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>43486</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>43486</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43489</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>43493</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43493</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>43501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>43501</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>43502</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>43502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>43516</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>43524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>43532</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>43535</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>43536</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>43536</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43537</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43538</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43538</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>43546</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>43549</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>43552</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>43564</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43584</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43584</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>43587</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>43591</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>43612</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>43612</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>43629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>43629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>43643</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>43647</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43648</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>43648</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43651</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>43651</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>43656</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>43658</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>43661</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>43668</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43675</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43693</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43719</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>43727</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>43733</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>43735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>43737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>43750</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>43762</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>43765</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>43788</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>43788</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>43794</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>43795</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>43795</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>43810</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>43811</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>43815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>43815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>43819</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>43833</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>43838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>43843</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>43843</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>43849</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>43862</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>43862</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>43867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>43874</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>43878</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>43880</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>43889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>43889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>43895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>43903</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>43906</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>43906</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>43907</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>43909</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>43910</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>43913</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>43915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>43916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>43917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>43924</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>43956</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>43959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>43962</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>43962</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>43969</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>43977</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>43979</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>43985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>43992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>43994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>43994</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44006</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44011</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44018</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44020</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44039</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44048</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44048</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44054</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44069</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>44091</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>44124</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>44147</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44150</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44158</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>44168</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44173</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44195</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44197</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44208</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44212</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44214</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44216</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44217</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44217</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44244</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>44246</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44263</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44272</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>44280</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44283</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44298</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44299</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44301</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44302</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44312</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44312</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44313</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44321</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44335</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44335</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>44354</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>44363</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44368</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44370</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44396</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44428</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44434</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44437</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44442</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44443</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>44447</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44483</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44487</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44489</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44504</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44510</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>44515</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>44516</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>44517</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>44530</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44538</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44565</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44609</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44609</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44628</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44649</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44652</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44663</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44663</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44678</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44699</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44712</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44725</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44733</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>44760</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44818</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44818</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44821</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44833</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44839</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44839</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44840</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44855</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44862</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44871</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44876</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44881</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44881</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44896</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44902</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44902</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44909</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44909</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44915</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44916</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44916</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44917</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44922</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44922</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44928</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44929</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44930</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>44931</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>44936</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44936</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44938</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44944</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44944</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44955</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44955</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>44959</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44959</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>44960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44966</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44966</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44974</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44979</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44987</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44992</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45005</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45006</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45014</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45016</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45020</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45029</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>45033</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45036</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45039</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45044</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>45056</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45070</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45072</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45072</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45078</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45078</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45079</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45084</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45085</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45096</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45097</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45097</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45102</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45103</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45103</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45106</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45112</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45132</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45145</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45147</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45166</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45169</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>

--- a/Översikt GOTLAND.xlsx
+++ b/Översikt GOTLAND.xlsx
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,14 +687,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 1684-2023</t>
+          <t>A 1702-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>44938</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -707,39 +707,141 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>23.3</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Granrotspindling
+Svartgrön spindling
+Violettfläckig spindling
+Jordtistel
+Odörspindling
+Svinrot
+Anisspindling
+Blå slemspindling
+Fransig jordstjärna
+Hasselticka
+Mindre märgborre
+Murgröna
+Olivspindling
+Rödgul trumpetsvamp
+Svavelriska
+Alvarstånds
+Sankt pers nycklar
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 1702-2023.xlsx", "A 1702-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 1702-2023.png", "A 1702-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 1702-2023.docx", "A 1702-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 1702-2023.docx", "A 1702-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 1702-2023.docx", "A 1702-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 1702-2023.docx", "A 1702-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 1684-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>7</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>17</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Cinnoberfläck
 Frostfläck
@@ -760,87 +862,87 @@
 Kärrknipprot</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 1684-2023.xlsx", "A 1684-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 1684-2023.png", "A 1684-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 1684-2023.docx", "A 1684-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 1684-2023.docx", "A 1684-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 1684-2023.docx", "A 1684-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 1684-2023.docx", "A 1684-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 1836-2023</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44938</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>14.3</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>10</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>17</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Sienamusseron
 Duvspindling
@@ -861,87 +963,87 @@
 Rödbrun jordstjärna</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 1836-2023.xlsx", "A 1836-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 1836-2023.png", "A 1836-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 1836-2023.docx", "A 1836-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 1836-2023.docx", "A 1836-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 1836-2023.docx", "A 1836-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 1836-2023.docx", "A 1836-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 58474-2022</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44902</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>10.3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>15</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ädellav
 Mörk kraterlav
@@ -960,87 +1062,87 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 58474-2022.xlsx", "A 58474-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 58474-2022.png", "A 58474-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 58474-2022.docx", "A 58474-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 58474-2022.docx", "A 58474-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 58474-2022.docx", "A 58474-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 58474-2022.docx", "A 58474-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 24202-2023</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45079</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>15</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönfjällig fjällskivling
 Gulsträngad fagerspindling
@@ -1059,87 +1161,87 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 24202-2023.xlsx", "A 24202-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 24202-2023.png", "A 24202-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 24202-2023.docx", "A 24202-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 24202-2023.docx", "A 24202-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 24202-2023.docx", "A 24202-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 24202-2023.docx", "A 24202-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 25779-2022</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44733</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>12.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>6</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>14</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Duvspindling
 Knärot
@@ -1157,91 +1259,91 @@
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 25779-2022.xlsx", "A 25779-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 25779-2022.png", "A 25779-2022")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/knärot/A 25779-2022.png", "A 25779-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 25779-2022.docx", "A 25779-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 25779-2022.docx", "A 25779-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 25779-2022.docx", "A 25779-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 25779-2022.docx", "A 25779-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 569-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44930</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>12.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>9</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>14</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Bullspindling
 Duvspindling
@@ -1259,87 +1361,87 @@
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 569-2023.xlsx", "A 569-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 569-2023.png", "A 569-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 569-2023.docx", "A 569-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 569-2023.docx", "A 569-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 569-2023.docx", "A 569-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 569-2023.docx", "A 569-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 44928-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3.7</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>7</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>13</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Barkkvastmossa
 Gulsträngad fagerspindling
@@ -1356,87 +1458,87 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 44928-2022.xlsx", "A 44928-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 44928-2022.png", "A 44928-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 44928-2022.docx", "A 44928-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 44928-2022.docx", "A 44928-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 44928-2022.docx", "A 44928-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 44928-2022.docx", "A 44928-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 2804-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44944</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>7.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>7</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>13</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Granrotspindling
 Narrspindling
@@ -1453,87 +1555,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 2804-2023.xlsx", "A 2804-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 2804-2023.png", "A 2804-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 2804-2023.docx", "A 2804-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 2804-2023.docx", "A 2804-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 2804-2023.docx", "A 2804-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 2804-2023.docx", "A 2804-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 12841-2020</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43899</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>6.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>6</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>8</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>6</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>12</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Bullspindling
 Duvspindling
@@ -1549,87 +1651,87 @@
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 12841-2020.xlsx", "A 12841-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 12841-2020.png", "A 12841-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 12841-2020.docx", "A 12841-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 12841-2020.docx", "A 12841-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 12841-2020.docx", "A 12841-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 12841-2020.docx", "A 12841-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 25218-2021</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44342</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>7.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>8</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>6</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>12</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Mörk lundlav
 Ädellav
@@ -1645,87 +1747,87 @@
 Slät lönnlav</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 25218-2021.xlsx", "A 25218-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 25218-2021.png", "A 25218-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 25218-2021.docx", "A 25218-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 25218-2021.docx", "A 25218-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 25218-2021.docx", "A 25218-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 25218-2021.docx", "A 25218-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 3324-2023</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44949</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>6.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>6</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>8</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>6</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Blåfotad fagerspindling
 Duvspindling
@@ -1741,87 +1843,87 @@
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 3324-2023.xlsx", "A 3324-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 3324-2023.png", "A 3324-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 3324-2023.docx", "A 3324-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 3324-2023.docx", "A 3324-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 3324-2023.docx", "A 3324-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 3324-2023.docx", "A 3324-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 62551-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44924</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>7.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>11</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Granrotspindling
 Svartgrön spindling
@@ -1836,123 +1938,28 @@
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 62551-2022.xlsx", "A 62551-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 62551-2022.png", "A 62551-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 62551-2022.docx", "A 62551-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 62551-2022.docx", "A 62551-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 62551-2022.docx", "A 62551-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 62551-2022.docx", "A 62551-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 1702-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44938</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>11</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Granrotspindling
-Svartgrön spindling
-Jordtistel
-Svinrot
-Anisspindling
-Mindre märgborre
-Murgröna
-Svavelriska
-Alvarstånds
-Sankt pers nycklar
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 1702-2023.xlsx", "A 1702-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 1702-2023.png", "A 1702-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 1702-2023.docx", "A 1702-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 1702-2023.docx", "A 1702-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 1702-2023.docx", "A 1702-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 1702-2023.docx", "A 1702-2023")</f>
         <v/>
       </c>
     </row>
@@ -1966,7 +1973,7 @@
         <v>44932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2067,7 @@
         <v>43384</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2160,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2253,7 @@
         <v>44973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2346,7 @@
         <v>43409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2431,7 +2438,7 @@
         <v>43837</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2530,7 @@
         <v>43888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2620,7 +2627,7 @@
         <v>43955</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2719,7 @@
         <v>44574</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,7 +2811,7 @@
         <v>44712</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2896,7 +2903,7 @@
         <v>44968</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2981,14 +2988,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 17551-2019</t>
+          <t>A 14450-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43553</v>
+        <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3001,39 +3008,131 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.2</v>
+        <v>11.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>8</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Pluggtrattskivling
+Vit taggsvamp
+Gulfotad denisespindling
+Diskvaxskivling
+Fjällig taggsvamp s.str.
+Fransig jordstjärna
+Mindre märgborre
+Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 14450-2023.xlsx", "A 14450-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 14450-2023.png", "A 14450-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 14450-2023.docx", "A 14450-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 14450-2023.docx", "A 14450-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 14450-2023.docx", "A 14450-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 14450-2023.docx", "A 14450-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 17551-2019</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>43553</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>5</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>4</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q28" t="n">
         <v>7</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Duvspindling
 Gul lammticka
@@ -3044,87 +3143,87 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 17551-2019.xlsx", "A 17551-2019")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 17551-2019.png", "A 17551-2019")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 17551-2019.docx", "A 17551-2019")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 17551-2019.docx", "A 17551-2019")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 17551-2019.docx", "A 17551-2019")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 17551-2019.docx", "A 17551-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 25887-2020</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>43984</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C29" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>4.7</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>2</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>3</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>2</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q29" t="n">
         <v>7</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Pluggtrattskivling
 Svartgrön spindling
@@ -3135,87 +3234,87 @@
 Nästrot</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 25887-2020.xlsx", "A 25887-2020")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 25887-2020.png", "A 25887-2020")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 25887-2020.docx", "A 25887-2020")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 25887-2020.docx", "A 25887-2020")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 25887-2020.docx", "A 25887-2020")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 25887-2020.docx", "A 25887-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 4508-2019</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>43486</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="C30" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>4.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>6</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Anisspindling
 Blå slemspindling
@@ -3225,87 +3324,87 @@
 Sotlav</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 4508-2019.xlsx", "A 4508-2019")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 4508-2019.png", "A 4508-2019")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 4508-2019.docx", "A 4508-2019")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 4508-2019.docx", "A 4508-2019")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 4508-2019.docx", "A 4508-2019")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 4508-2019.docx", "A 4508-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 6379-2019</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>43493</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>3.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>2</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q31" t="n">
         <v>6</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Gotlandsmåra
 Mörkfjällig olivspindling
@@ -3315,87 +3414,87 @@
 Tjockfotad fingersvamp</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 6379-2019.xlsx", "A 6379-2019")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 6379-2019.png", "A 6379-2019")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 6379-2019.docx", "A 6379-2019")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 6379-2019.docx", "A 6379-2019")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 6379-2019.docx", "A 6379-2019")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 6379-2019.docx", "A 6379-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 65819-2020</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44174</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="C32" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>4.3</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K32" t="n">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>3</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>2</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q32" t="n">
         <v>6</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Tallvaxskivling
 Vit taggsvamp
@@ -3405,87 +3504,87 @@
 Nästrot</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 65819-2020.xlsx", "A 65819-2020")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 65819-2020.png", "A 65819-2020")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 65819-2020.docx", "A 65819-2020")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 65819-2020.docx", "A 65819-2020")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 65819-2020.docx", "A 65819-2020")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 65819-2020.docx", "A 65819-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 25205-2021</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44342</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="C33" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>2.8</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>2</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>2</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>6</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Ädellav
 Mörk kraterlav
@@ -3495,87 +3594,87 @@
 Slät lönnlav</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 25205-2021.xlsx", "A 25205-2021")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 25205-2021.png", "A 25205-2021")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 25205-2021.docx", "A 25205-2021")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 25205-2021.docx", "A 25205-2021")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 25205-2021.docx", "A 25205-2021")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 25205-2021.docx", "A 25205-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 63872-2021</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44509</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="C34" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>20.5</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K34" t="n">
         <v>4</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>5</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>4</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q34" t="n">
         <v>6</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Duvspindling
 Gulsträngad fagerspindling
@@ -3585,87 +3684,87 @@
 Sankt pers nycklar</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 63872-2021.xlsx", "A 63872-2021")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 63872-2021.png", "A 63872-2021")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 63872-2021.docx", "A 63872-2021")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 63872-2021.docx", "A 63872-2021")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 63872-2021.docx", "A 63872-2021")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 63872-2021.docx", "A 63872-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 44916-2022</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="C35" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>13.7</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>6</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Granrotspindling
 Odörspindling
@@ -3675,87 +3774,87 @@
 Olivspindling</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 44916-2022.xlsx", "A 44916-2022")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 44916-2022.png", "A 44916-2022")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 44916-2022.docx", "A 44916-2022")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 44916-2022.docx", "A 44916-2022")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 44916-2022.docx", "A 44916-2022")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 44916-2022.docx", "A 44916-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 59865-2022</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44908</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="C36" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>2.7</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J36" t="n">
         <v>2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K36" t="n">
         <v>2</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>4</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P36" t="n">
         <v>2</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q36" t="n">
         <v>6</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Granrotspindling
 Svartgrön spindling
@@ -3765,87 +3864,87 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 59865-2022.xlsx", "A 59865-2022")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 59865-2022.png", "A 59865-2022")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 59865-2022.docx", "A 59865-2022")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 59865-2022.docx", "A 59865-2022")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 59865-2022.docx", "A 59865-2022")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 59865-2022.docx", "A 59865-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 2649-2023</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>44943</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="C37" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>2.6</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>5</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>5</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q37" t="n">
         <v>6</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Duvspindling
 Granrotspindling
@@ -3855,87 +3954,87 @@
 Anisspindling</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 2649-2023.xlsx", "A 2649-2023")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 2649-2023.png", "A 2649-2023")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 2649-2023.docx", "A 2649-2023")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 2649-2023.docx", "A 2649-2023")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 2649-2023.docx", "A 2649-2023")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 2649-2023.docx", "A 2649-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 7038-2023</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>44968</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="C38" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GOTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>GOTLAND</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>5.2</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>2</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>5</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>2</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>6</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Liten ädellav
 Ädellav
@@ -3945,118 +4044,28 @@
 Havstulpanlav</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 7038-2023.xlsx", "A 7038-2023")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 7038-2023.png", "A 7038-2023")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 7038-2023.docx", "A 7038-2023")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 7038-2023.docx", "A 7038-2023")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 7038-2023.docx", "A 7038-2023")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 7038-2023.docx", "A 7038-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>A 14450-2023</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>45012</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>45206</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GOTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>GOTLAND</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>6</v>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>Pluggtrattskivling
-Gulfotad denisespindling
-Diskvaxskivling
-Fjällig taggsvamp s.str.
-Mindre märgborre
-Rödgul trumpetsvamp</t>
-        </is>
-      </c>
-      <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/artfynd/A 14450-2023.xlsx", "A 14450-2023")</f>
-        <v/>
-      </c>
-      <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/kartor/A 14450-2023.png", "A 14450-2023")</f>
-        <v/>
-      </c>
-      <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomål/A 14450-2023.docx", "A 14450-2023")</f>
-        <v/>
-      </c>
-      <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/klagomålsmail/A 14450-2023.docx", "A 14450-2023")</f>
-        <v/>
-      </c>
-      <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsyn/A 14450-2023.docx", "A 14450-2023")</f>
-        <v/>
-      </c>
-      <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTLAND/tillsynsmail/A 14450-2023.docx", "A 14450-2023")</f>
         <v/>
       </c>
     </row>
@@ -4070,7 +4079,7 @@
         <v>45195</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4160,7 +4169,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4249,7 +4258,7 @@
         <v>43790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4338,7 +4347,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4432,7 +4441,7 @@
         <v>44712</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4521,7 +4530,7 @@
         <v>44818</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4619,7 @@
         <v>44881</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4699,7 +4708,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4788,7 +4797,7 @@
         <v>43501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4876,7 +4885,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4973,7 @@
         <v>43689</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5052,7 +5061,7 @@
         <v>44168</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5140,7 +5149,7 @@
         <v>44211</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5228,7 +5237,7 @@
         <v>44361</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5316,7 +5325,7 @@
         <v>44841</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5404,7 +5413,7 @@
         <v>44853</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5492,7 +5501,7 @@
         <v>44928</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5580,7 +5589,7 @@
         <v>44929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5668,7 +5677,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5756,7 +5765,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5853,7 @@
         <v>45195</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5932,7 +5941,7 @@
         <v>43388</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6019,7 +6028,7 @@
         <v>43474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6106,7 +6115,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6197,7 +6206,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6284,7 +6293,7 @@
         <v>43806</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6371,7 +6380,7 @@
         <v>43851</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6458,7 +6467,7 @@
         <v>43870</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6545,7 +6554,7 @@
         <v>43888</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6637,7 +6646,7 @@
         <v>44130</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6724,7 +6733,7 @@
         <v>44160</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6811,7 +6820,7 @@
         <v>44214</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6898,7 +6907,7 @@
         <v>44269</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6990,7 +6999,7 @@
         <v>44375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7077,7 +7086,7 @@
         <v>44375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7164,7 +7173,7 @@
         <v>44468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7251,7 +7260,7 @@
         <v>44489</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7338,7 +7347,7 @@
         <v>44833</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7425,7 +7434,7 @@
         <v>44833</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7512,7 +7521,7 @@
         <v>44841</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7599,7 +7608,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7691,7 +7700,7 @@
         <v>44939</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7778,7 +7787,7 @@
         <v>45040</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7865,7 +7874,7 @@
         <v>45095</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7952,7 +7961,7 @@
         <v>43346</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8038,7 +8047,7 @@
         <v>43531</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8124,7 +8133,7 @@
         <v>43648</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8210,7 +8219,7 @@
         <v>43648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8296,7 +8305,7 @@
         <v>43706</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8382,7 +8391,7 @@
         <v>43852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8468,7 +8477,7 @@
         <v>43906</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8559,7 +8568,7 @@
         <v>44070</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8645,7 +8654,7 @@
         <v>44081</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8731,7 +8740,7 @@
         <v>44146</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8817,7 +8826,7 @@
         <v>44168</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8912,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8989,7 +8998,7 @@
         <v>44293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9075,7 +9084,7 @@
         <v>44362</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9161,7 +9170,7 @@
         <v>44496</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9247,7 +9256,7 @@
         <v>44550</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9333,7 +9342,7 @@
         <v>44603</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9419,7 +9428,7 @@
         <v>44691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9514,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9591,7 +9600,7 @@
         <v>44841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9677,7 +9686,7 @@
         <v>44857</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9763,7 +9772,7 @@
         <v>44951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9858,7 @@
         <v>45145</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9944,7 @@
         <v>43350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10025,7 +10034,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10110,7 +10119,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10200,7 +10209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10290,7 +10299,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10375,7 +10384,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10460,7 +10469,7 @@
         <v>43502</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10545,7 +10554,7 @@
         <v>43531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10630,7 +10639,7 @@
         <v>43546</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10715,7 +10724,7 @@
         <v>43558</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10809,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10894,7 @@
         <v>43648</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10970,7 +10979,7 @@
         <v>43727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11055,7 +11064,7 @@
         <v>43826</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11145,7 +11154,7 @@
         <v>43899</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11230,7 +11239,7 @@
         <v>43913</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11315,7 +11324,7 @@
         <v>43957</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11400,7 +11409,7 @@
         <v>43963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11485,7 +11494,7 @@
         <v>44067</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11570,7 +11579,7 @@
         <v>44068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11660,7 +11669,7 @@
         <v>44069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11745,7 +11754,7 @@
         <v>44088</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11830,7 +11839,7 @@
         <v>44165</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11915,7 +11924,7 @@
         <v>44197</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12005,7 +12014,7 @@
         <v>44238</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12090,7 +12099,7 @@
         <v>44277</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12175,7 +12184,7 @@
         <v>44300</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12260,7 +12269,7 @@
         <v>44362</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12345,7 +12354,7 @@
         <v>44385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12430,7 +12439,7 @@
         <v>44434</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12515,7 +12524,7 @@
         <v>44447</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12600,7 +12609,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12690,7 +12699,7 @@
         <v>44511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12780,7 +12789,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12865,7 +12874,7 @@
         <v>44725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12950,7 +12959,7 @@
         <v>44733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13035,7 +13044,7 @@
         <v>44743</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13120,7 +13129,7 @@
         <v>44839</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13205,7 +13214,7 @@
         <v>44839</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13290,7 +13299,7 @@
         <v>44862</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13380,7 +13389,7 @@
         <v>44924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13465,7 +13474,7 @@
         <v>44929</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13550,7 +13559,7 @@
         <v>44929</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13635,7 +13644,7 @@
         <v>44934</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13720,7 +13729,7 @@
         <v>44942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13805,7 +13814,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13890,7 +13899,7 @@
         <v>45019</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13975,7 +13984,7 @@
         <v>45072</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14065,7 +14074,7 @@
         <v>45078</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14155,7 +14164,7 @@
         <v>45097</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14240,7 +14249,7 @@
         <v>45103</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14325,7 +14334,7 @@
         <v>45147</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14410,7 +14419,7 @@
         <v>45159</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14495,7 +14504,7 @@
         <v>43314</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14557,7 +14566,7 @@
         <v>43314</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14619,7 +14628,7 @@
         <v>43314</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14676,7 +14685,7 @@
         <v>43318</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14733,7 +14742,7 @@
         <v>43327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14790,7 +14799,7 @@
         <v>43328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14847,7 +14856,7 @@
         <v>43335</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14904,7 +14913,7 @@
         <v>43341</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14961,7 +14970,7 @@
         <v>43346</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15023,7 +15032,7 @@
         <v>43354</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15080,7 +15089,7 @@
         <v>43354</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15137,7 +15146,7 @@
         <v>43354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15194,7 +15203,7 @@
         <v>43356</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15251,7 +15260,7 @@
         <v>43369</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15308,7 +15317,7 @@
         <v>43382</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15365,7 +15374,7 @@
         <v>43388</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15422,7 +15431,7 @@
         <v>43388</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15479,7 +15488,7 @@
         <v>43390</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15536,7 +15545,7 @@
         <v>43396</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15593,7 +15602,7 @@
         <v>43396</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15650,7 +15659,7 @@
         <v>43399</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15707,7 +15716,7 @@
         <v>43402</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15764,7 +15773,7 @@
         <v>43405</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15821,7 +15830,7 @@
         <v>43406</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15878,7 +15887,7 @@
         <v>43410</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15935,7 +15944,7 @@
         <v>43410</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15992,7 +16001,7 @@
         <v>43412</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16049,7 +16058,7 @@
         <v>43412</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16106,7 +16115,7 @@
         <v>43412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16163,7 +16172,7 @@
         <v>43418</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16220,7 +16229,7 @@
         <v>43423</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16277,7 +16286,7 @@
         <v>43425</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16334,7 +16343,7 @@
         <v>43426</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16391,7 +16400,7 @@
         <v>43427</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16448,7 +16457,7 @@
         <v>43427</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16505,7 +16514,7 @@
         <v>43432</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16562,7 +16571,7 @@
         <v>43438</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16619,7 +16628,7 @@
         <v>43440</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16676,7 +16685,7 @@
         <v>43441</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16733,7 +16742,7 @@
         <v>43442</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16790,7 +16799,7 @@
         <v>43447</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16847,7 +16856,7 @@
         <v>43447</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16904,7 +16913,7 @@
         <v>43451</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16961,7 +16970,7 @@
         <v>43451</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17018,7 +17027,7 @@
         <v>43453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17075,7 +17084,7 @@
         <v>43461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17137,7 +17146,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17194,7 +17203,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17251,7 +17260,7 @@
         <v>43475</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17308,7 +17317,7 @@
         <v>43475</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17365,7 +17374,7 @@
         <v>43483</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17422,7 +17431,7 @@
         <v>43486</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17479,7 +17488,7 @@
         <v>43486</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17536,7 +17545,7 @@
         <v>43489</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17593,7 +17602,7 @@
         <v>43493</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17650,7 +17659,7 @@
         <v>43493</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17707,7 +17716,7 @@
         <v>43493</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17764,7 +17773,7 @@
         <v>43493</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17821,7 +17830,7 @@
         <v>43493</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17878,7 +17887,7 @@
         <v>43501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17935,7 +17944,7 @@
         <v>43501</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17992,7 +18001,7 @@
         <v>43502</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18049,7 +18058,7 @@
         <v>43502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18106,7 +18115,7 @@
         <v>43503</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18163,7 +18172,7 @@
         <v>43503</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18220,7 +18229,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18277,7 +18286,7 @@
         <v>43516</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18334,7 +18343,7 @@
         <v>43517</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18391,7 +18400,7 @@
         <v>43522</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18453,7 +18462,7 @@
         <v>43524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18510,7 +18519,7 @@
         <v>43532</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18567,7 +18576,7 @@
         <v>43535</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18624,7 +18633,7 @@
         <v>43536</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18681,7 +18690,7 @@
         <v>43536</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18738,7 +18747,7 @@
         <v>43537</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18795,7 +18804,7 @@
         <v>43538</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18852,7 +18861,7 @@
         <v>43538</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18909,7 +18918,7 @@
         <v>43544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18971,7 +18980,7 @@
         <v>43546</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19028,7 +19037,7 @@
         <v>43549</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19090,7 +19099,7 @@
         <v>43552</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19147,7 +19156,7 @@
         <v>43564</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19204,7 +19213,7 @@
         <v>43579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19261,7 +19270,7 @@
         <v>43584</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19318,7 +19327,7 @@
         <v>43584</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19375,7 +19384,7 @@
         <v>43587</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19432,7 +19441,7 @@
         <v>43591</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19489,7 +19498,7 @@
         <v>43612</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19546,7 +19555,7 @@
         <v>43612</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19603,7 +19612,7 @@
         <v>43628</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19660,7 +19669,7 @@
         <v>43629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19717,7 +19726,7 @@
         <v>43629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19774,7 +19783,7 @@
         <v>43630</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19831,7 +19840,7 @@
         <v>43636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19888,7 +19897,7 @@
         <v>43643</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19945,7 +19954,7 @@
         <v>43647</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20007,7 +20016,7 @@
         <v>43648</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20064,7 +20073,7 @@
         <v>43648</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20121,7 +20130,7 @@
         <v>43648</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20178,7 +20187,7 @@
         <v>43648</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20235,7 +20244,7 @@
         <v>43651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20292,7 +20301,7 @@
         <v>43651</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20349,7 +20358,7 @@
         <v>43651</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20406,7 +20415,7 @@
         <v>43656</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20463,7 +20472,7 @@
         <v>43658</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20520,7 +20529,7 @@
         <v>43661</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20577,7 +20586,7 @@
         <v>43668</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20639,7 +20648,7 @@
         <v>43675</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20696,7 +20705,7 @@
         <v>43693</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20753,7 +20762,7 @@
         <v>43719</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20815,7 +20824,7 @@
         <v>43721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20872,7 +20881,7 @@
         <v>43727</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20929,7 +20938,7 @@
         <v>43733</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20986,7 +20995,7 @@
         <v>43735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21048,7 +21057,7 @@
         <v>43737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21105,7 +21114,7 @@
         <v>43750</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21162,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21219,7 +21228,7 @@
         <v>43765</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21276,7 +21285,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21333,7 +21342,7 @@
         <v>43788</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21390,7 +21399,7 @@
         <v>43788</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21447,7 +21456,7 @@
         <v>43788</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21504,7 +21513,7 @@
         <v>43794</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21561,7 +21570,7 @@
         <v>43795</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21618,7 +21627,7 @@
         <v>43795</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21675,7 +21684,7 @@
         <v>43810</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21732,7 +21741,7 @@
         <v>43811</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21789,7 +21798,7 @@
         <v>43815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21846,7 +21855,7 @@
         <v>43815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21903,7 +21912,7 @@
         <v>43815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21960,7 +21969,7 @@
         <v>43819</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22017,7 +22026,7 @@
         <v>43833</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22079,7 +22088,7 @@
         <v>43838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22136,7 +22145,7 @@
         <v>43843</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22193,7 +22202,7 @@
         <v>43843</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22250,7 +22259,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22307,7 +22316,7 @@
         <v>43849</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22364,7 +22373,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22421,7 +22430,7 @@
         <v>43862</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22478,7 +22487,7 @@
         <v>43862</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22535,7 +22544,7 @@
         <v>43862</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22592,7 +22601,7 @@
         <v>43862</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22649,7 +22658,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22706,7 +22715,7 @@
         <v>43867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22763,7 +22772,7 @@
         <v>43874</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22825,7 +22834,7 @@
         <v>43878</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22882,7 +22891,7 @@
         <v>43880</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22939,7 +22948,7 @@
         <v>43889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22996,7 +23005,7 @@
         <v>43889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23053,7 +23062,7 @@
         <v>43895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23110,7 +23119,7 @@
         <v>43903</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23167,7 +23176,7 @@
         <v>43906</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23224,7 +23233,7 @@
         <v>43906</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23281,7 +23290,7 @@
         <v>43906</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23338,7 +23347,7 @@
         <v>43907</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23395,7 +23404,7 @@
         <v>43909</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23452,7 +23461,7 @@
         <v>43910</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23509,7 +23518,7 @@
         <v>43913</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23566,7 +23575,7 @@
         <v>43915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23623,7 +23632,7 @@
         <v>43916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23680,7 +23689,7 @@
         <v>43917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23737,7 +23746,7 @@
         <v>43924</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23794,7 +23803,7 @@
         <v>43956</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23851,7 +23860,7 @@
         <v>43959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23913,7 +23922,7 @@
         <v>43962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23970,7 +23979,7 @@
         <v>43962</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24027,7 +24036,7 @@
         <v>43962</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24084,7 +24093,7 @@
         <v>43969</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24141,7 +24150,7 @@
         <v>43977</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24198,7 +24207,7 @@
         <v>43979</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24255,7 +24264,7 @@
         <v>43985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24312,7 +24321,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24374,7 +24383,7 @@
         <v>43992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24436,7 +24445,7 @@
         <v>43994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24498,7 +24507,7 @@
         <v>43994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24560,7 +24569,7 @@
         <v>43994</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24622,7 +24631,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24679,7 +24688,7 @@
         <v>44006</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24741,7 +24750,7 @@
         <v>44011</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24798,7 +24807,7 @@
         <v>44018</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24855,7 +24864,7 @@
         <v>44020</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24917,7 +24926,7 @@
         <v>44039</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24974,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25031,7 +25040,7 @@
         <v>44048</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25088,7 +25097,7 @@
         <v>44049</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25145,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25202,7 +25211,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25259,7 +25268,7 @@
         <v>44069</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25316,7 +25325,7 @@
         <v>44074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25373,7 +25382,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25430,7 +25439,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25487,7 +25496,7 @@
         <v>44091</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25544,7 +25553,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25601,7 +25610,7 @@
         <v>44124</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25658,7 +25667,7 @@
         <v>44147</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25715,7 +25724,7 @@
         <v>44150</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25772,7 +25781,7 @@
         <v>44158</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25829,7 +25838,7 @@
         <v>44168</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25886,7 +25895,7 @@
         <v>44173</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25943,7 +25952,7 @@
         <v>44195</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26000,7 +26009,7 @@
         <v>44197</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26062,7 +26071,7 @@
         <v>44208</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26119,7 +26128,7 @@
         <v>44212</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26176,7 +26185,7 @@
         <v>44214</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26233,7 +26242,7 @@
         <v>44216</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26290,7 +26299,7 @@
         <v>44217</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26347,7 +26356,7 @@
         <v>44217</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26404,7 +26413,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26461,7 +26470,7 @@
         <v>44244</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26523,7 +26532,7 @@
         <v>44246</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26580,7 +26589,7 @@
         <v>44263</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26637,7 +26646,7 @@
         <v>44263</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26694,7 +26703,7 @@
         <v>44266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26751,7 +26760,7 @@
         <v>44272</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26808,7 +26817,7 @@
         <v>44280</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26865,7 +26874,7 @@
         <v>44283</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26922,7 +26931,7 @@
         <v>44298</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26979,7 +26988,7 @@
         <v>44299</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27036,7 +27045,7 @@
         <v>44301</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27093,7 +27102,7 @@
         <v>44302</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27150,7 +27159,7 @@
         <v>44312</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27216,7 @@
         <v>44312</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27264,7 +27273,7 @@
         <v>44313</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27321,7 +27330,7 @@
         <v>44321</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27378,7 +27387,7 @@
         <v>44335</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27435,7 +27444,7 @@
         <v>44335</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27492,7 +27501,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27549,7 +27558,7 @@
         <v>44354</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27606,7 +27615,7 @@
         <v>44363</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27663,7 +27672,7 @@
         <v>44368</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27720,7 +27729,7 @@
         <v>44370</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27777,7 +27786,7 @@
         <v>44375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27834,7 +27843,7 @@
         <v>44375</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27891,7 +27900,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27948,7 +27957,7 @@
         <v>44390</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28005,7 +28014,7 @@
         <v>44396</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28062,7 +28071,7 @@
         <v>44428</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28119,7 +28128,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28176,7 +28185,7 @@
         <v>44434</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28233,7 +28242,7 @@
         <v>44437</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28290,7 +28299,7 @@
         <v>44442</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28347,7 +28356,7 @@
         <v>44443</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28409,7 +28418,7 @@
         <v>44447</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28466,7 +28475,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28523,7 +28532,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28580,7 +28589,7 @@
         <v>44483</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28642,7 +28651,7 @@
         <v>44487</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28699,7 +28708,7 @@
         <v>44488</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28756,7 +28765,7 @@
         <v>44489</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28813,7 +28822,7 @@
         <v>44504</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28870,7 +28879,7 @@
         <v>44510</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28927,7 +28936,7 @@
         <v>44515</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28984,7 +28993,7 @@
         <v>44516</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29041,7 +29050,7 @@
         <v>44517</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29098,7 +29107,7 @@
         <v>44530</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29155,7 +29164,7 @@
         <v>44538</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29212,7 +29221,7 @@
         <v>44565</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29269,7 +29278,7 @@
         <v>44609</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29326,7 +29335,7 @@
         <v>44609</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29383,7 +29392,7 @@
         <v>44628</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29440,7 +29449,7 @@
         <v>44649</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29497,7 +29506,7 @@
         <v>44652</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29554,7 +29563,7 @@
         <v>44663</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29611,7 +29620,7 @@
         <v>44663</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29668,7 +29677,7 @@
         <v>44678</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29725,7 +29734,7 @@
         <v>44699</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29787,7 +29796,7 @@
         <v>44712</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29844,7 +29853,7 @@
         <v>44725</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29901,7 +29910,7 @@
         <v>44733</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29958,7 +29967,7 @@
         <v>44741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30020,7 +30029,7 @@
         <v>44741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30077,7 +30086,7 @@
         <v>44760</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30134,7 +30143,7 @@
         <v>44818</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30191,7 +30200,7 @@
         <v>44818</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30248,7 +30257,7 @@
         <v>44819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30310,7 +30319,7 @@
         <v>44821</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30367,7 +30376,7 @@
         <v>44833</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30424,7 +30433,7 @@
         <v>44839</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30481,7 +30490,7 @@
         <v>44839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30538,7 +30547,7 @@
         <v>44839</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30595,7 +30604,7 @@
         <v>44839</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30652,7 +30661,7 @@
         <v>44840</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30709,7 +30718,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30766,7 +30775,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30823,7 +30832,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30880,7 +30889,7 @@
         <v>44852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30937,7 +30946,7 @@
         <v>44855</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30994,7 +31003,7 @@
         <v>44862</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31056,7 +31065,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31113,7 +31122,7 @@
         <v>44871</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31170,7 +31179,7 @@
         <v>44875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31232,7 +31241,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31294,7 +31303,7 @@
         <v>44875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31356,7 +31365,7 @@
         <v>44876</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31418,7 +31427,7 @@
         <v>44881</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31475,7 +31484,7 @@
         <v>44881</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31532,7 +31541,7 @@
         <v>44882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31589,7 +31598,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31646,7 +31655,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31708,7 +31717,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31765,7 +31774,7 @@
         <v>44896</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31822,7 +31831,7 @@
         <v>44902</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31879,7 +31888,7 @@
         <v>44902</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31936,7 +31945,7 @@
         <v>44909</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31993,7 +32002,7 @@
         <v>44909</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32050,7 +32059,7 @@
         <v>44915</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32107,7 +32116,7 @@
         <v>44916</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32164,7 +32173,7 @@
         <v>44916</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32221,7 +32230,7 @@
         <v>44917</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32278,7 +32287,7 @@
         <v>44922</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32335,7 +32344,7 @@
         <v>44922</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32392,7 +32401,7 @@
         <v>44928</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32449,7 +32458,7 @@
         <v>44929</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32506,7 +32515,7 @@
         <v>44930</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32563,7 +32572,7 @@
         <v>44931</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32620,7 +32629,7 @@
         <v>44935</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32677,7 +32686,7 @@
         <v>44936</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32734,7 +32743,7 @@
         <v>44936</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32791,7 +32800,7 @@
         <v>44938</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32848,7 +32857,7 @@
         <v>44944</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32905,7 +32914,7 @@
         <v>44944</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32962,7 +32971,7 @@
         <v>44944</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33019,7 +33028,7 @@
         <v>44955</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33081,7 +33090,7 @@
         <v>44955</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33143,7 +33152,7 @@
         <v>44959</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33200,7 +33209,7 @@
         <v>44959</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33257,7 +33266,7 @@
         <v>44960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33314,7 +33323,7 @@
         <v>44966</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33376,7 +33385,7 @@
         <v>44966</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33433,7 +33442,7 @@
         <v>44968</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33490,7 +33499,7 @@
         <v>44968</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33547,7 +33556,7 @@
         <v>44974</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33604,7 +33613,7 @@
         <v>44979</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33661,7 +33670,7 @@
         <v>44987</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33718,7 +33727,7 @@
         <v>44992</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33784,7 @@
         <v>45005</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33832,7 +33841,7 @@
         <v>45006</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33889,7 +33898,7 @@
         <v>45014</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33946,7 +33955,7 @@
         <v>45016</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34003,7 +34012,7 @@
         <v>45020</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34060,7 +34069,7 @@
         <v>45029</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34117,7 +34126,7 @@
         <v>45033</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34174,7 +34183,7 @@
         <v>45036</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34231,7 +34240,7 @@
         <v>45039</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34293,7 +34302,7 @@
         <v>45044</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34350,7 +34359,7 @@
         <v>45056</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34407,7 +34416,7 @@
         <v>45070</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34464,7 +34473,7 @@
         <v>45071</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34521,7 +34530,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34578,7 +34587,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34635,7 +34644,7 @@
         <v>45072</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34692,7 +34701,7 @@
         <v>45072</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34749,7 +34758,7 @@
         <v>45078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34811,7 +34820,7 @@
         <v>45078</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34873,7 +34882,7 @@
         <v>45078</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34935,7 +34944,7 @@
         <v>45079</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34992,7 +35001,7 @@
         <v>45084</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35049,7 +35058,7 @@
         <v>45085</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35106,7 +35115,7 @@
         <v>45096</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35163,7 +35172,7 @@
         <v>45097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35220,7 +35229,7 @@
         <v>45097</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35277,7 +35286,7 @@
         <v>45097</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35334,7 +35343,7 @@
         <v>45097</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35391,7 +35400,7 @@
         <v>45102</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35448,7 +35457,7 @@
         <v>45103</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35505,7 +35514,7 @@
         <v>45103</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35562,7 +35571,7 @@
         <v>45103</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35619,7 +35628,7 @@
         <v>45106</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35676,7 +35685,7 @@
         <v>45112</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35733,7 +35742,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35790,7 +35799,7 @@
         <v>45125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35847,7 +35856,7 @@
         <v>45132</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35904,7 +35913,7 @@
         <v>45145</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35961,7 +35970,7 @@
         <v>45147</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36018,7 +36027,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36075,7 +36084,7 @@
         <v>45166</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36132,7 +36141,7 @@
         <v>45169</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36194,7 +36203,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
